--- a/Examples/SR1_July2011_calibr_plain.xlsx
+++ b/Examples/SR1_July2011_calibr_plain.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="120">
   <si>
     <t>id</t>
   </si>
@@ -372,6 +372,9 @@
   <si>
     <t>Non-transgenic line, growth</t>
   </si>
+  <si>
+    <t>BZ</t>
+  </si>
 </sst>
 </file>
 
@@ -713,7 +716,7 @@
   <dimension ref="A1:IL99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -63584,7 +63587,7 @@
         <v>12</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H88" s="3">
         <v>10</v>
@@ -64306,7 +64309,7 @@
         <v>12</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H89" s="3">
         <v>10</v>
@@ -65028,7 +65031,7 @@
         <v>12</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H90" s="3">
         <v>10</v>
@@ -65750,7 +65753,7 @@
         <v>12</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H91" s="3">
         <v>10</v>
@@ -66472,7 +66475,7 @@
         <v>12</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H92" s="3">
         <v>10</v>
@@ -72230,7 +72233,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>

--- a/Examples/SR1_July2011_calibr_plain.xlsx
+++ b/Examples/SR1_July2011_calibr_plain.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="119">
   <si>
     <t>id</t>
   </si>
@@ -358,12 +358,6 @@
     <t>AY+BY</t>
   </si>
   <si>
-    <t>WT (infected with WT A. rhizo LBA)</t>
-  </si>
-  <si>
-    <t>Vector (infected with A. rhizo LBA carrying the vector backbone)</t>
-  </si>
-  <si>
     <t>AZ</t>
   </si>
   <si>
@@ -374,6 +368,9 @@
   </si>
   <si>
     <t>BZ</t>
+  </si>
+  <si>
+    <t>Control</t>
   </si>
 </sst>
 </file>
@@ -715,9 +712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IL99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -727,7 +722,7 @@
     <col min="4" max="4" width="23.85546875" style="3"/>
     <col min="5" max="5" width="13.140625" style="3"/>
     <col min="6" max="6" width="11.7109375" style="3"/>
-    <col min="7" max="7" width="55.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" style="3" customWidth="1"/>
     <col min="9" max="14" width="9.5703125" style="3"/>
     <col min="15" max="246" width="11" style="3"/>
@@ -49138,7 +49133,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>11</v>
@@ -49147,7 +49142,7 @@
         <v>12</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H68" s="3">
         <v>7</v>
@@ -49860,7 +49855,7 @@
         <v>9</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>11</v>
@@ -49869,7 +49864,7 @@
         <v>12</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H69" s="3">
         <v>7</v>
@@ -50582,7 +50577,7 @@
         <v>9</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>11</v>
@@ -50591,7 +50586,7 @@
         <v>12</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H70" s="3">
         <v>7</v>
@@ -51304,7 +51299,7 @@
         <v>9</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>11</v>
@@ -51313,7 +51308,7 @@
         <v>12</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H71" s="3">
         <v>7</v>
@@ -52026,7 +52021,7 @@
         <v>9</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>11</v>
@@ -52035,7 +52030,7 @@
         <v>12</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H72" s="3">
         <v>7</v>
@@ -52748,7 +52743,7 @@
         <v>9</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>11</v>
@@ -52757,7 +52752,7 @@
         <v>12</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H73" s="3">
         <v>7</v>
@@ -53470,7 +53465,7 @@
         <v>9</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>11</v>
@@ -53479,7 +53474,7 @@
         <v>12</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H74" s="3">
         <v>7</v>
@@ -54192,7 +54187,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>11</v>
@@ -54201,7 +54196,7 @@
         <v>12</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H75" s="3">
         <v>8</v>
@@ -54914,7 +54909,7 @@
         <v>9</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>11</v>
@@ -54923,7 +54918,7 @@
         <v>12</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H76" s="3">
         <v>8</v>
@@ -55636,7 +55631,7 @@
         <v>9</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>11</v>
@@ -55645,7 +55640,7 @@
         <v>12</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H77" s="3">
         <v>8</v>
@@ -56358,7 +56353,7 @@
         <v>9</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>11</v>
@@ -56367,7 +56362,7 @@
         <v>12</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H78" s="3">
         <v>8</v>
@@ -57080,7 +57075,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>11</v>
@@ -57089,7 +57084,7 @@
         <v>12</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H79" s="3">
         <v>8</v>
@@ -57802,7 +57797,7 @@
         <v>9</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>11</v>
@@ -57811,7 +57806,7 @@
         <v>12</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H80" s="3">
         <v>8</v>
@@ -58533,7 +58528,7 @@
         <v>12</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H81" s="3">
         <v>9</v>
@@ -59255,7 +59250,7 @@
         <v>12</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H82" s="3">
         <v>9</v>
@@ -59977,7 +59972,7 @@
         <v>12</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H83" s="3">
         <v>9</v>
@@ -60699,7 +60694,7 @@
         <v>12</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H84" s="3">
         <v>9</v>
@@ -61421,7 +61416,7 @@
         <v>12</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H85" s="3">
         <v>9</v>
@@ -62143,7 +62138,7 @@
         <v>12</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H86" s="3">
         <v>9</v>
@@ -62865,7 +62860,7 @@
         <v>12</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H87" s="3">
         <v>9</v>
@@ -63587,7 +63582,7 @@
         <v>12</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H88" s="3">
         <v>10</v>
@@ -64309,7 +64304,7 @@
         <v>12</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H89" s="3">
         <v>10</v>
@@ -65031,7 +65026,7 @@
         <v>12</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H90" s="3">
         <v>10</v>
@@ -65753,7 +65748,7 @@
         <v>12</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H91" s="3">
         <v>10</v>
@@ -66475,7 +66470,7 @@
         <v>12</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H92" s="3">
         <v>10</v>
@@ -67197,7 +67192,7 @@
         <v>12</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H93" s="3">
         <v>11</v>
@@ -67919,7 +67914,7 @@
         <v>12</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H94" s="3">
         <v>11</v>
@@ -68641,7 +68636,7 @@
         <v>12</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H95" s="3">
         <v>11</v>
@@ -69363,7 +69358,7 @@
         <v>12</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H96" s="3">
         <v>11</v>
@@ -70085,7 +70080,7 @@
         <v>12</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H97" s="3">
         <v>11</v>
@@ -70807,7 +70802,7 @@
         <v>12</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H98" s="3">
         <v>11</v>
@@ -71529,7 +71524,7 @@
         <v>12</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H99" s="3">
         <v>11</v>
@@ -72233,7 +72228,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
